--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/86.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/86.xlsx
@@ -479,13 +479,13 @@
         <v>-0.02893495815151811</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.924218586410914</v>
+        <v>-1.921879593996662</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03886028521639225</v>
+        <v>0.0451358994530181</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005793291516107407</v>
+        <v>0.0114896667160946</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.02460953931322789</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.793615923840111</v>
+        <v>-1.786385667006416</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01150675264610845</v>
+        <v>-0.004741618462758096</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007885162928316021</v>
+        <v>0.01351700334432988</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.02375104991122322</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.766981946288582</v>
+        <v>-1.757023127308113</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.05384471897085435</v>
+        <v>-0.04870712055892891</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003929652876487393</v>
+        <v>0.009603991808776371</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.02826251820031464</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.792909189254647</v>
+        <v>-1.781395239382332</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0887234086797563</v>
+        <v>-0.08446568695663793</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02656247382166998</v>
+        <v>0.03332760800502034</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.03512858173131232</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.75789119885351</v>
+        <v>-1.747745071597606</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1459563179493706</v>
+        <v>-0.1436582500322716</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03081389946830314</v>
+        <v>0.03928999243650735</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.0375866690405154</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.617450129765017</v>
+        <v>-1.605556841284469</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1970033320722732</v>
+        <v>-0.1992557534348545</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02786576165410695</v>
+        <v>0.03494097760435354</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.02854312264674229</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.475599526553399</v>
+        <v>-1.465239332696998</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2873394374819623</v>
+        <v>-0.2942761397495344</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05401494131627528</v>
+        <v>0.06211641773360992</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.001534049825018498</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.254419933647347</v>
+        <v>-1.244868785619295</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3661348346942747</v>
+        <v>-0.3795832540666678</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07806595348974979</v>
+        <v>0.08682379588066681</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.04860353560058542</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9506208640737837</v>
+        <v>-0.9472485281063969</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4052775422027802</v>
+        <v>-0.4230167376998389</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1184505620849615</v>
+        <v>0.1282929036504547</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1253550058147773</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7439702546668984</v>
+        <v>-0.7459708329700715</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5029769090619139</v>
+        <v>-0.5263117425351966</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1176131839124296</v>
+        <v>0.1275578367208073</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.231088367130146</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.512761011919919</v>
+        <v>-0.5207113825016088</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6213274067925126</v>
+        <v>-0.6494299441842151</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1305374549174295</v>
+        <v>0.14041285088447</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3681777614076754</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2619882855142934</v>
+        <v>-0.2737430603121669</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7568221207923185</v>
+        <v>-0.7847704043101335</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1943655043052937</v>
+        <v>0.2040819243410829</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.537738292230909</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03372875460063156</v>
+        <v>-0.0486740661573816</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8708212426620814</v>
+        <v>-0.8999429574348261</v>
       </c>
       <c r="G14" t="n">
-        <v>0.257864583696806</v>
+        <v>0.2680831158322901</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7340277350464263</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3163960587414934</v>
+        <v>0.3009265988173503</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.012363338125924</v>
+        <v>-1.039714281387206</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2948650511812213</v>
+        <v>0.3031569839122333</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9392557068274429</v>
       </c>
       <c r="E16" t="n">
-        <v>0.583401644345093</v>
+        <v>0.5669169420877109</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.162035242351286</v>
+        <v>-1.184812873055628</v>
       </c>
       <c r="G16" t="n">
-        <v>0.322156968725454</v>
+        <v>0.3274566911068734</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.130177408028141</v>
       </c>
       <c r="E17" t="n">
-        <v>0.834475008402887</v>
+        <v>0.8176408739005762</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.298262662252057</v>
+        <v>-1.317555414621839</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3539836353581539</v>
+        <v>0.3572355588627611</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.298290887771792</v>
       </c>
       <c r="E18" t="n">
-        <v>1.075690290703975</v>
+        <v>1.057299451290697</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.498592010867799</v>
+        <v>-1.516328845336175</v>
       </c>
       <c r="G18" t="n">
-        <v>0.404876395607169</v>
+        <v>0.4070091915165314</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.4510625415123</v>
       </c>
       <c r="E19" t="n">
-        <v>1.343377426587098</v>
+        <v>1.328262120965247</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.704474498943489</v>
+        <v>-1.720601898860336</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4411827206590906</v>
+        <v>0.4424875825106489</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.591234517600103</v>
       </c>
       <c r="E20" t="n">
-        <v>1.63686430988746</v>
+        <v>1.622732766216422</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.909270913825482</v>
+        <v>-1.922260506624016</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5062085985982647</v>
+        <v>0.50781252408287</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.707295050042834</v>
       </c>
       <c r="E21" t="n">
-        <v>1.83375521373272</v>
+        <v>1.823956944702624</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.138553557167989</v>
+        <v>-2.150057275916016</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5800899081138764</v>
+        <v>0.5819582688108603</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.784929541345021</v>
       </c>
       <c r="E22" t="n">
-        <v>1.966369472740546</v>
+        <v>1.958329383068942</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.308503549733067</v>
+        <v>-2.318787403662085</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6421912585256737</v>
+        <v>0.6440517491270511</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.82255827082099</v>
       </c>
       <c r="E23" t="n">
-        <v>2.15953782136393</v>
+        <v>2.156315804222628</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.461138544954277</v>
+        <v>-2.470828993674565</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6995500893249921</v>
+        <v>0.7014892808824345</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.828700145257562</v>
       </c>
       <c r="E24" t="n">
-        <v>2.261260381097109</v>
+        <v>2.262993376149661</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.700469726367168</v>
+        <v>-2.711709009902815</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7476521136719411</v>
+        <v>0.7486405976801179</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.809658605006153</v>
       </c>
       <c r="E25" t="n">
-        <v>2.40040524543921</v>
+        <v>2.407913316647815</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.860161049309168</v>
+        <v>-2.871778097433928</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7877628429400465</v>
+        <v>0.7911658722802986</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.766496741951864</v>
       </c>
       <c r="E26" t="n">
-        <v>2.545298427612303</v>
+        <v>2.55697292743499</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.030787083086845</v>
+        <v>-3.042962907999667</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8189882342684095</v>
+        <v>0.8215727736655852</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.701089026103093</v>
       </c>
       <c r="E27" t="n">
-        <v>2.594240978170026</v>
+        <v>2.609050924082345</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.146877289359256</v>
+        <v>-3.163868825773697</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8601126318506326</v>
+        <v>0.8632213196152014</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.619152344118663</v>
       </c>
       <c r="E28" t="n">
-        <v>2.608819543271514</v>
+        <v>2.623860869994663</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.231860155737401</v>
+        <v>-3.251584976355981</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8836694020200188</v>
+        <v>0.8888620911011896</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.527611639665954</v>
       </c>
       <c r="E29" t="n">
-        <v>2.615636620085867</v>
+        <v>2.632458162435207</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.318289545688022</v>
+        <v>-3.34360292119678</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8832396947999036</v>
+        <v>0.8892083753078758</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.433209202181929</v>
       </c>
       <c r="E30" t="n">
-        <v>2.61110344501652</v>
+        <v>2.630042043084011</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.348768064943328</v>
+        <v>-3.379135615850582</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8943050492226474</v>
+        <v>0.8992537653400168</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.341887030468302</v>
       </c>
       <c r="E31" t="n">
-        <v>2.600892782976643</v>
+        <v>2.620067483912328</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.422875246202846</v>
+        <v>-3.458443356286878</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8581230716813085</v>
+        <v>0.8638635194166921</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.255706655407216</v>
       </c>
       <c r="E32" t="n">
-        <v>2.564542385389325</v>
+        <v>2.583466817284723</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.460888594991819</v>
+        <v>-3.502740976417643</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8541266371323261</v>
+        <v>0.8604919704588661</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.17563101092438</v>
       </c>
       <c r="E33" t="n">
-        <v>2.497350657139241</v>
+        <v>2.515736774495155</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.495039300857119</v>
+        <v>-3.541524807566492</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8643624834781445</v>
+        <v>0.8734225375403513</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.101381555313608</v>
       </c>
       <c r="E34" t="n">
-        <v>2.439700632802482</v>
+        <v>2.457971846762541</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.514274601528974</v>
+        <v>-3.561292126701347</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8581718662740688</v>
+        <v>0.8684360449640707</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.030837204183836</v>
       </c>
       <c r="E35" t="n">
-        <v>2.381910520763928</v>
+        <v>2.398549476895197</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.483564701462837</v>
+        <v>-3.532748863955681</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8094087538961735</v>
+        <v>0.8206441023840179</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.963399411038404</v>
       </c>
       <c r="E36" t="n">
-        <v>2.295803804733173</v>
+        <v>2.313390320375466</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.464439582129473</v>
+        <v>-3.514062895957159</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8003896243311206</v>
+        <v>0.8124686470679821</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8988165307797679</v>
       </c>
       <c r="E37" t="n">
-        <v>2.148691255599047</v>
+        <v>2.163778228876714</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.409939170054437</v>
+        <v>-3.459549891729153</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7552924024867346</v>
+        <v>0.7669480140799662</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8349759140652423</v>
       </c>
       <c r="E38" t="n">
-        <v>2.063809126444665</v>
+        <v>2.079596538231311</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.368381130204295</v>
+        <v>-3.417669177959144</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7483509781617986</v>
+        <v>0.7585931205841021</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7691284889286832</v>
       </c>
       <c r="E39" t="n">
-        <v>1.981522554821308</v>
+        <v>1.99601140083288</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.260203518054663</v>
+        <v>-3.308315773525901</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6948217358846048</v>
+        <v>0.7045885245322756</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6977075892850255</v>
       </c>
       <c r="E40" t="n">
-        <v>1.856761077209651</v>
+        <v>1.871530098624816</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.179842758826217</v>
+        <v>-3.226507703715419</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6613533673083882</v>
+        <v>0.6710650652868135</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.620406066466708</v>
       </c>
       <c r="E41" t="n">
-        <v>1.750876810919754</v>
+        <v>1.76294953758013</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.122600405441875</v>
+        <v>-3.169007998204744</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6168086261755787</v>
+        <v>0.6252233323980523</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5381787170071396</v>
       </c>
       <c r="E42" t="n">
-        <v>1.620521269350995</v>
+        <v>1.629239761263879</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.063415712461848</v>
+        <v>-3.108395669881697</v>
       </c>
       <c r="G42" t="n">
-        <v>0.571152627543131</v>
+        <v>0.5788590251610192</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.453992946935233</v>
       </c>
       <c r="E43" t="n">
-        <v>1.500089918342037</v>
+        <v>1.507349294529476</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.962236189325518</v>
+        <v>-3.004673318854906</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5176595877057272</v>
+        <v>0.5247064713117904</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3715592339990261</v>
       </c>
       <c r="E44" t="n">
-        <v>1.312613222861276</v>
+        <v>1.317026772477403</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.909979541507896</v>
+        <v>-2.951026812153176</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4732234538922875</v>
+        <v>0.4793070377961146</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2952312765533011</v>
       </c>
       <c r="E45" t="n">
-        <v>1.133436330207133</v>
+        <v>1.136003555393974</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.799100125536551</v>
+        <v>-2.838117698524913</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4284363138147977</v>
+        <v>0.4334133622763505</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2299025542431857</v>
       </c>
       <c r="E46" t="n">
-        <v>0.966170040243873</v>
+        <v>0.9641631658642146</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.644610935790449</v>
+        <v>-2.680358484054309</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3716425558800263</v>
+        <v>0.3767455258712831</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1774712764795395</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8933842480366866</v>
+        <v>0.8900284392700735</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.600654090799446</v>
+        <v>-2.636115167583229</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3364947089013819</v>
+        <v>0.3411349172709763</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1356641130994661</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7527298993572571</v>
+        <v>0.746191423927374</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.525989706770987</v>
+        <v>-2.559977501657233</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3454193973191568</v>
+        <v>0.3494237019637458</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1012597184937315</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6208932057953541</v>
+        <v>0.6114837194882186</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.468615135780456</v>
+        <v>-2.502517933634151</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3021385935407518</v>
+        <v>0.305662822353344</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.07135337721437741</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4920235382771029</v>
+        <v>0.4798972949666024</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.40968622090764</v>
+        <v>-2.443100285824171</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2579527287675989</v>
+        <v>0.2599312708030739</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.04393502147391177</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3805042835329491</v>
+        <v>0.3669535529176715</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.381631691099137</v>
+        <v>-2.414836411472535</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2411689628771697</v>
+        <v>0.2431679671612215</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.01777474544833284</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2261984670144788</v>
+        <v>0.2110800133543857</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.384808848695482</v>
+        <v>-2.418565262770897</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2262110591674492</v>
+        <v>0.2283013565605365</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.007687834388749263</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1732201314297403</v>
+        <v>0.1547867935001879</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.299567843181443</v>
+        <v>-2.330832584987839</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1896528910561195</v>
+        <v>0.1914551429500087</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.03302831534751095</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0707876890728554</v>
+        <v>0.05202065908958731</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.25877005456689</v>
+        <v>-2.28904709937467</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1667713750897714</v>
+        <v>0.1684823338746252</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.05911160512338215</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.01612335072888337</v>
+        <v>-0.03576238730535205</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.220222326286236</v>
+        <v>-2.248671934894186</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1503527816354839</v>
+        <v>0.1516875498503469</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.08665442653547616</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.05473089173614664</v>
+        <v>-0.075237212848452</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.196588429179906</v>
+        <v>-2.223305829744865</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1218567394634562</v>
+        <v>0.1231348429899524</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1150220144211938</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1239389384806166</v>
+        <v>-0.1456729945075365</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.172996243580291</v>
+        <v>-2.198255315429364</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1199962488620788</v>
+        <v>0.122059787930104</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1429038662223633</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2010296729845604</v>
+        <v>-0.2227070643231134</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.157349706505002</v>
+        <v>-2.181661218843052</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1060425693517482</v>
+        <v>0.1082273078921136</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1695942105228523</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2765920349217212</v>
+        <v>-0.2973344589022217</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.152349047756629</v>
+        <v>-2.175885355677439</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08558976488956707</v>
+        <v>0.08777450342993243</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1947500519668127</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3168711842358058</v>
+        <v>-0.3380653517041196</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.162921734194406</v>
+        <v>-2.187015244884156</v>
       </c>
       <c r="G60" t="n">
-        <v>0.05949882393488688</v>
+        <v>0.06096266171769651</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2187555022627677</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3445597545986062</v>
+        <v>-0.3649873747548465</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.115140022738642</v>
+        <v>-2.136070542004138</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02272344118481761</v>
+        <v>0.02310592783129367</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.242061928767714</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.3854999919436371</v>
+        <v>-0.4067775824253798</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.098893784378137</v>
+        <v>-2.118446249902934</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05764935146735856</v>
+        <v>0.05849774777373964</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2657680322230732</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.396544884117804</v>
+        <v>-0.4173707311117334</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.125746550587527</v>
+        <v>-2.144007533423296</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02703625357718149</v>
+        <v>0.02735577945880553</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2900701223342773</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.3826053707795651</v>
+        <v>-0.4048761673268486</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.099251086718672</v>
+        <v>-2.114642632696311</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01027294993532916</v>
+        <v>0.01020054505574933</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3149395163232542</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4372380004607907</v>
+        <v>-0.4586478085487226</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.109346058353134</v>
+        <v>-2.124684087680649</v>
       </c>
       <c r="G65" t="n">
-        <v>0.00973463539584433</v>
+        <v>0.009931387786006916</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3398933067279046</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4566314900543365</v>
+        <v>-0.4781483314425168</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.09893313485617</v>
+        <v>-2.113326752710904</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.02354642490493741</v>
+        <v>-0.02291209519905324</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3650531715854742</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.4804479733787372</v>
+        <v>-0.5003215388042797</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.129718587840129</v>
+        <v>-2.144915742456287</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.02370697485531008</v>
+        <v>-0.02286487462541422</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3910934839929679</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.4256422015941685</v>
+        <v>-0.4462445378728732</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.16262424458048</v>
+        <v>-2.177212253796695</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.04545677107344299</v>
+        <v>-0.04482086734843751</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4170093433586506</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3907320315028406</v>
+        <v>-0.4099681191842562</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.187856558104491</v>
+        <v>-2.202861682387851</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07460445716168912</v>
+        <v>-0.07419206415190835</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4415029947207962</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3132965868113319</v>
+        <v>-0.3314450272799289</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.196938648434396</v>
+        <v>-2.212014603578214</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.08271065563638767</v>
+        <v>-0.08227780037802998</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4643061131403655</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.2592715285109284</v>
+        <v>-0.2775710748151702</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.222329150880098</v>
+        <v>-2.237554637840439</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.08723123855276324</v>
+        <v>-0.08748622965041396</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4854657617839317</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.198651330092275</v>
+        <v>-0.2174844688786378</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.2741261851143</v>
+        <v>-2.289960817474585</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.07103930385194307</v>
+        <v>-0.07217417163840086</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5041969215405844</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.07105189600491348</v>
+        <v>-0.08984411029412238</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.283830012997119</v>
+        <v>-2.299565482152762</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08679523525616295</v>
+        <v>-0.08769400017442565</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5190223416709988</v>
       </c>
       <c r="E74" t="n">
-        <v>0.002224990168118748</v>
+        <v>-0.01629806685134775</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.327988332435649</v>
+        <v>-2.343694682237548</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07444390721131645</v>
+        <v>-0.07581645188509066</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5290982211605986</v>
       </c>
       <c r="E75" t="n">
-        <v>0.09908540483559918</v>
+        <v>0.07965099074489958</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.358229961813199</v>
+        <v>-2.374348704624878</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.07916753859433982</v>
+        <v>-0.08086433120710196</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5344659887830763</v>
       </c>
       <c r="E76" t="n">
-        <v>0.236025068388759</v>
+        <v>0.2163671435828347</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.382921599769043</v>
+        <v>-2.398353283234275</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.0887344268136054</v>
+        <v>-0.09138979707123966</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5347975527227181</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3801611473645056</v>
+        <v>0.3603143402640252</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.32425082403212</v>
+        <v>-2.337478880727531</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.09484634306161598</v>
+        <v>-0.09917489564519286</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5296172238379436</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5643670311112038</v>
+        <v>0.5439535771270552</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.320496001418257</v>
+        <v>-2.332336560258242</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.0713446635614754</v>
+        <v>-0.0747760252459109</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.518799901183142</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6848755090571057</v>
+        <v>0.6643345595241318</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.254214843229846</v>
+        <v>-2.264982708038664</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.05763653103406771</v>
+        <v>-0.06301967642891607</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5029082537047265</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8398014891093686</v>
+        <v>0.8195202527314092</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.235161341766501</v>
+        <v>-2.244558235920667</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.03730650006334803</v>
+        <v>-0.0425133553166107</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4831507029799263</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9634768935273275</v>
+        <v>0.9422827260590138</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.196735599967748</v>
+        <v>-2.205283310805972</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.009277941570346679</v>
+        <v>-0.01509079418531012</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4601905020668527</v>
       </c>
       <c r="E82" t="n">
-        <v>1.114851886441936</v>
+        <v>1.094271586430929</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.141345867089177</v>
+        <v>-2.149618911590733</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.01310595607334995</v>
+        <v>-0.01941934676888701</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.43391329889201</v>
       </c>
       <c r="E83" t="n">
-        <v>1.183880495006578</v>
+        <v>1.163136497006956</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.086514910998668</v>
+        <v>-2.092998295759305</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01467233337936459</v>
+        <v>0.007403513077198011</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4035827954063809</v>
       </c>
       <c r="E84" t="n">
-        <v>1.320099257802182</v>
+        <v>1.299396184299714</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.005951103303574</v>
+        <v>-2.011628590274106</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04334151765473532</v>
+        <v>0.03628991199130823</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3688142448394174</v>
       </c>
       <c r="E85" t="n">
-        <v>1.330171406159385</v>
+        <v>1.309284172419725</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.852998943229422</v>
+        <v>-1.856236700561938</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05901087800728366</v>
+        <v>0.05195297626737138</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3301988005283891</v>
       </c>
       <c r="E86" t="n">
-        <v>1.375163168722644</v>
+        <v>1.353413372504511</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.759831177420513</v>
+        <v>-1.761725509432998</v>
       </c>
       <c r="G86" t="n">
-        <v>0.07823122549748636</v>
+        <v>0.07155108834668623</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2888897324572677</v>
       </c>
       <c r="E87" t="n">
-        <v>1.38689748127194</v>
+        <v>1.36281498871604</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.571000038485873</v>
+        <v>-1.571590295656361</v>
       </c>
       <c r="G87" t="n">
-        <v>0.07246874149440455</v>
+        <v>0.06567527496687077</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2478892501609954</v>
       </c>
       <c r="E88" t="n">
-        <v>1.381881082332355</v>
+        <v>1.355653201714122</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.424723293505157</v>
+        <v>-1.424585566832044</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1015298565309791</v>
+        <v>0.09429723866860248</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2117320459895735</v>
       </c>
       <c r="E89" t="n">
-        <v>1.393816869329178</v>
+        <v>1.367071136420037</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.230585349103052</v>
+        <v>-1.231155931034523</v>
       </c>
       <c r="G89" t="n">
-        <v>0.09483397918896601</v>
+        <v>0.08806412294825175</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1839866855887141</v>
       </c>
       <c r="E90" t="n">
-        <v>1.333418607606628</v>
+        <v>1.307215911294336</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.065381811198256</v>
+        <v>-1.065280286964932</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1043127223374388</v>
+        <v>0.09747990533187247</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1670212419582162</v>
       </c>
       <c r="E91" t="n">
-        <v>1.270952084758689</v>
+        <v>1.245884256232854</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8744351905645877</v>
+        <v>-0.8747783267330314</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0719257048975558</v>
+        <v>0.06516686679069066</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1614372677358087</v>
       </c>
       <c r="E92" t="n">
-        <v>1.25576594827638</v>
+        <v>1.231003479460077</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7082478907089792</v>
+        <v>-0.7096833961476054</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05478463666659131</v>
+        <v>0.04757090703367026</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.164667970777418</v>
       </c>
       <c r="E93" t="n">
-        <v>1.234319937748658</v>
+        <v>1.210944179778222</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5332264085350705</v>
+        <v>-0.5341834121608213</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0357594675474299</v>
+        <v>0.02968532775833055</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.17121357144932</v>
       </c>
       <c r="E94" t="n">
-        <v>1.201350533233894</v>
+        <v>1.178502071669093</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.3986808280654091</v>
+        <v>-0.4023876430960722</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01671855823705548</v>
+        <v>0.009684266783962708</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.175250325379306</v>
       </c>
       <c r="E95" t="n">
-        <v>1.166851182133225</v>
+        <v>1.146521151162506</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2630664886123844</v>
+        <v>-0.2667245090502872</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01061136404640881</v>
+        <v>0.004275937083173544</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1737661314852555</v>
       </c>
       <c r="E96" t="n">
-        <v>1.135706065780049</v>
+        <v>1.115020306487915</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1536611415481375</v>
+        <v>-0.1585972655125364</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02424056733743102</v>
+        <v>-0.03071135994509814</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1663517930236004</v>
       </c>
       <c r="E97" t="n">
-        <v>1.08169832168998</v>
+        <v>1.061797997939375</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.07188927417744544</v>
+        <v>-0.07672151287983855</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05461441432117039</v>
+        <v>-0.06120168434381377</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1564089160716601</v>
       </c>
       <c r="E98" t="n">
-        <v>1.016560688393193</v>
+        <v>0.9991709251410632</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.06221850069617401</v>
+        <v>-0.0658576329046212</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08018907700406397</v>
+        <v>-0.08620497808567519</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1484121804648867</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9613928922107253</v>
+        <v>0.9460052812808899</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0004274603315933623</v>
+        <v>-0.00372008005303395</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1166276196621749</v>
+        <v>-0.123145632843481</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1445096935543062</v>
       </c>
       <c r="E100" t="n">
-        <v>0.936096830912302</v>
+        <v>0.9238934606648578</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04707981306782445</v>
+        <v>0.04465897165926399</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.118680140596351</v>
+        <v>-0.1246362289513528</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1417712325482553</v>
       </c>
       <c r="E101" t="n">
-        <v>0.871406219045965</v>
+        <v>0.861439529969889</v>
       </c>
       <c r="F101" t="n">
-        <v>0.07262929144477721</v>
+        <v>0.06979290898819338</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1503053327815244</v>
+        <v>-0.1553154356446245</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1416572031939149</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8047528053353661</v>
+        <v>0.797831843259007</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1152521552304785</v>
+        <v>0.1136576738606009</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1425375484179055</v>
+        <v>-0.1469951705694291</v>
       </c>
     </row>
   </sheetData>
